--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-1-DASHBOARD-INTERESANTES-STREAMLIT-PYTHON\Dashboard-streamlit\dashboard-original\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-1-DASHBOARD-INTERESANTES-STREAMLIT-PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="C244" sqref="C244"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18989,7 +18989,7 @@
         <v>34.834306356597729</v>
       </c>
       <c r="M244" s="4">
-        <f>+LN(B244/B243)</f>
+        <f t="shared" si="221"/>
         <v>4.1273979167770099E-2</v>
       </c>
       <c r="N244" s="4">
@@ -19021,18 +19021,157 @@
         <v>1.3011907811446699E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A245" s="7"/>
+    <row r="245" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="7">
+        <v>45651</v>
+      </c>
+      <c r="B245">
+        <v>99299.199999999997</v>
+      </c>
+      <c r="C245">
+        <v>1200</v>
+      </c>
+      <c r="D245">
+        <v>2551020</v>
+      </c>
+      <c r="E245">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="F245">
+        <v>212.42254242844979</v>
+      </c>
+      <c r="G245" s="2">
+        <f t="shared" ref="G245:G246" si="229">+F245/$U$1</f>
+        <v>2.1242254242844978</v>
+      </c>
+      <c r="H245" s="8">
+        <f t="shared" ref="H245:H246" si="230">+B245/G245</f>
+        <v>46746.0745290001</v>
+      </c>
+      <c r="I245">
+        <f t="shared" ref="I245:I246" si="231">+C245/G245</f>
+        <v>564.91179621588219</v>
+      </c>
+      <c r="J245">
+        <f t="shared" ref="J245:J246" si="232">+D245/F245</f>
+        <v>12009.17741985533</v>
+      </c>
+      <c r="K245">
+        <f t="shared" ref="K245:K246" si="233">+D245/C245/G245</f>
+        <v>1000.7647849879442</v>
+      </c>
+      <c r="L245">
+        <f t="shared" ref="L245:L246" si="234">+E245/G245</f>
+        <v>34.83151983501093</v>
+      </c>
+      <c r="M245" s="4">
+        <f t="shared" ref="M245:M246" si="235">+LN(B245/B244)</f>
+        <v>6.2948467716832041E-3</v>
+      </c>
+      <c r="N245" s="4">
+        <f t="shared" ref="N245:N246" si="236">+LN(C245/C244)</f>
+        <v>0</v>
+      </c>
+      <c r="O245" s="4">
+        <f t="shared" ref="O245:O246" si="237">+LN(D245/D244)</f>
+        <v>0</v>
+      </c>
+      <c r="P245" s="4">
+        <f t="shared" ref="P245:P246" si="238">+LN(E245/E244)</f>
+        <v>0</v>
+      </c>
+      <c r="Q245" s="4">
+        <f t="shared" ref="Q245:Q246" si="239">+_xlfn.STDEV.S(M226:M245)</f>
+        <v>3.0140768373059474E-2</v>
+      </c>
+      <c r="R245" s="4">
+        <f t="shared" ref="R245:R246" si="240">+_xlfn.STDEV.S(N226:N245)</f>
+        <v>1.8878987433080655E-2</v>
+      </c>
+      <c r="S245" s="4">
+        <f t="shared" ref="S245:S246" si="241">+_xlfn.STDEV.S(O226:O245)</f>
+        <v>2.4916055399116614E-2</v>
+      </c>
+      <c r="T245" s="4">
+        <f t="shared" ref="T245:T246" si="242">+_xlfn.STDEV.S(P226:P245)</f>
+        <v>1.3002348360400328E-2</v>
+      </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
-      <c r="O246" s="2"/>
-      <c r="P246" s="2"/>
-      <c r="Q246" s="2"/>
-      <c r="R246" s="2"/>
-      <c r="S246" s="2"/>
-      <c r="T246" s="2"/>
+      <c r="A246" s="7">
+        <v>45652</v>
+      </c>
+      <c r="B246">
+        <v>95861.29</v>
+      </c>
+      <c r="C246">
+        <v>1200</v>
+      </c>
+      <c r="D246">
+        <v>2597388.5</v>
+      </c>
+      <c r="E246">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F246">
+        <v>212.43953623184407</v>
+      </c>
+      <c r="G246" s="2">
+        <f t="shared" si="229"/>
+        <v>2.1243953623184408</v>
+      </c>
+      <c r="H246" s="8">
+        <f t="shared" si="230"/>
+        <v>45124.03467845203</v>
+      </c>
+      <c r="I246">
+        <f t="shared" si="231"/>
+        <v>564.86660688733105</v>
+      </c>
+      <c r="J246">
+        <f t="shared" si="232"/>
+        <v>12226.483573026455</v>
+      </c>
+      <c r="K246">
+        <f t="shared" si="233"/>
+        <v>1018.8736310855378</v>
+      </c>
+      <c r="L246">
+        <f t="shared" si="234"/>
+        <v>35.257090713217586</v>
+      </c>
+      <c r="M246" s="4">
+        <f t="shared" si="235"/>
+        <v>-3.5235263857997821E-2</v>
+      </c>
+      <c r="N246" s="4">
+        <f t="shared" si="236"/>
+        <v>0</v>
+      </c>
+      <c r="O246" s="4">
+        <f t="shared" si="237"/>
+        <v>1.8013237987962227E-2</v>
+      </c>
+      <c r="P246" s="4">
+        <f t="shared" si="238"/>
+        <v>1.2223941585714318E-2</v>
+      </c>
+      <c r="Q246" s="4">
+        <f t="shared" si="239"/>
+        <v>3.1212467771200885E-2</v>
+      </c>
+      <c r="R246" s="4">
+        <f t="shared" si="240"/>
+        <v>1.8694768687334017E-2</v>
+      </c>
+      <c r="S246" s="4">
+        <f t="shared" si="241"/>
+        <v>2.5016250903668276E-2</v>
+      </c>
+      <c r="T246" s="4">
+        <f t="shared" si="242"/>
+        <v>1.3194826794129885E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U246"/>
+  <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244"/>
+    <sheetView tabSelected="1" topLeftCell="E233" workbookViewId="0">
+      <selection activeCell="F249" sqref="F249:F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19097,7 +19097,7 @@
         <v>1.3002348360400328E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="7">
         <v>45652</v>
       </c>
@@ -19171,6 +19171,82 @@
       <c r="T246" s="4">
         <f t="shared" si="242"/>
         <v>1.3194826794129885E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A247" s="7">
+        <v>45653</v>
+      </c>
+      <c r="B247">
+        <v>94203.26</v>
+      </c>
+      <c r="C247">
+        <v>1210</v>
+      </c>
+      <c r="D247">
+        <v>2577545.67</v>
+      </c>
+      <c r="E247">
+        <v>74.930000000000007</v>
+      </c>
+      <c r="F247">
+        <v>212.45653139474263</v>
+      </c>
+      <c r="G247" s="2">
+        <f t="shared" ref="G247" si="243">+F247/$U$1</f>
+        <v>2.1245653139474263</v>
+      </c>
+      <c r="H247" s="8">
+        <f t="shared" ref="H247" si="244">+B247/G247</f>
+        <v>44340.015993658038</v>
+      </c>
+      <c r="I247">
+        <f t="shared" ref="I247" si="245">+C247/G247</f>
+        <v>569.52826635008421</v>
+      </c>
+      <c r="J247">
+        <f t="shared" ref="J247" si="246">+D247/F247</f>
+        <v>12132.10840391129</v>
+      </c>
+      <c r="K247">
+        <f t="shared" ref="K247" si="247">+D247/C247/G247</f>
+        <v>1002.6535871001067</v>
+      </c>
+      <c r="L247">
+        <f t="shared" ref="L247" si="248">+E247/G247</f>
+        <v>35.268390907117201</v>
+      </c>
+      <c r="M247" s="4">
+        <f t="shared" ref="M247" si="249">+LN(B247/B246)</f>
+        <v>-1.7447462563727766E-2</v>
+      </c>
+      <c r="N247" s="4">
+        <f t="shared" ref="N247" si="250">+LN(C247/C246)</f>
+        <v>8.2988028146950641E-3</v>
+      </c>
+      <c r="O247" s="4">
+        <f t="shared" ref="O247" si="251">+LN(D247/D246)</f>
+        <v>-7.6688617079310548E-3</v>
+      </c>
+      <c r="P247" s="4">
+        <f t="shared" ref="P247" si="252">+LN(E247/E246)</f>
+        <v>4.0045385304556604E-4</v>
+      </c>
+      <c r="Q247" s="4">
+        <f t="shared" ref="Q247" si="253">+_xlfn.STDEV.S(M228:M247)</f>
+        <v>3.1378601778288308E-2</v>
+      </c>
+      <c r="R247" s="4">
+        <f t="shared" ref="R247" si="254">+_xlfn.STDEV.S(N228:N247)</f>
+        <v>1.8636386212293323E-2</v>
+      </c>
+      <c r="S247" s="4">
+        <f t="shared" ref="S247" si="255">+_xlfn.STDEV.S(O228:O247)</f>
+        <v>2.5217399618997941E-2</v>
+      </c>
+      <c r="T247" s="4">
+        <f t="shared" ref="T247" si="256">+_xlfn.STDEV.S(P228:P247)</f>
+        <v>1.3151728671364552E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -132,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,6 +202,13 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +490,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U264"/>
+  <dimension ref="A1:Y265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="B263" sqref="B263:AD263"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="Q250" sqref="Q250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17656,75 +17671,75 @@
       <c r="A227" s="7">
         <v>45625</v>
       </c>
-      <c r="B227" s="11">
+      <c r="B227" s="15">
         <v>97286.55</v>
       </c>
-      <c r="C227" s="11">
+      <c r="C227" s="15">
         <v>1120</v>
       </c>
-      <c r="D227" s="11">
+      <c r="D227" s="15">
         <v>2258295</v>
       </c>
-      <c r="E227" s="11">
+      <c r="E227" s="15">
         <v>65.75</v>
       </c>
-      <c r="F227" s="11">
+      <c r="F227" s="15">
         <v>210.76665007278871</v>
       </c>
-      <c r="G227" s="12">
+      <c r="G227" s="16">
         <f t="shared" si="65"/>
         <v>2.1076665007278872</v>
       </c>
-      <c r="H227" s="13">
+      <c r="H227" s="17">
         <f t="shared" si="66"/>
         <v>46158.417361760927</v>
       </c>
-      <c r="I227" s="11">
+      <c r="I227" s="15">
         <f t="shared" si="67"/>
         <v>531.39336779002065</v>
       </c>
-      <c r="J227" s="11">
+      <c r="J227" s="15">
         <f t="shared" si="68"/>
         <v>10714.669513512186</v>
       </c>
-      <c r="K227" s="11">
+      <c r="K227" s="15">
         <f t="shared" si="69"/>
         <v>956.66692084930219</v>
       </c>
-      <c r="L227" s="11">
+      <c r="L227" s="15">
         <f t="shared" si="70"/>
         <v>31.195637439458803</v>
       </c>
-      <c r="M227" s="4">
+      <c r="M227" s="18">
         <f t="shared" si="71"/>
         <v>7.5863776275319206E-3</v>
       </c>
-      <c r="N227" s="4">
+      <c r="N227" s="18">
         <f t="shared" si="72"/>
         <v>-4.4543503493803087E-3</v>
       </c>
-      <c r="O227" s="4">
+      <c r="O227" s="18">
         <f t="shared" si="73"/>
         <v>1.2248381375193044E-2</v>
       </c>
-      <c r="P227" s="4">
+      <c r="P227" s="18">
         <f t="shared" si="74"/>
         <v>-2.531646921779508E-3</v>
       </c>
-      <c r="Q227" s="4">
+      <c r="Q227" s="18">
         <f>+_xlfn.STDEV.S(M208:M227)</f>
         <v>4.0486749611416593E-2</v>
       </c>
-      <c r="R227" s="4">
+      <c r="R227" s="18">
         <f t="shared" ref="R227:T227" si="77">+_xlfn.STDEV.S(N208:N227)</f>
         <v>9.4965319141101703E-3</v>
       </c>
-      <c r="S227" s="4">
+      <c r="S227" s="18">
         <f t="shared" si="77"/>
         <v>1.6374089845088043E-2</v>
       </c>
-      <c r="T227" s="4">
-        <f t="shared" si="77"/>
+      <c r="T227" s="18">
+        <f>+_xlfn.STDEV.S(P208:P227)</f>
         <v>8.4471996791993589E-3</v>
       </c>
       <c r="U227" s="5"/>
@@ -18717,7 +18732,7 @@
         <v>1.2739193771541894E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="7">
         <v>45645</v>
       </c>
@@ -18793,7 +18808,7 @@
         <v>1.312229352937302E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="7">
         <v>45646</v>
       </c>
@@ -18869,7 +18884,7 @@
         <v>1.3130761358161313E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="7">
         <v>45649</v>
       </c>
@@ -18945,7 +18960,7 @@
         <v>1.3053839904637432E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="7">
         <v>45650</v>
       </c>
@@ -19021,7 +19036,7 @@
         <v>1.3011907811446739E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="7">
         <v>45651</v>
       </c>
@@ -19097,7 +19112,7 @@
         <v>1.3002348360400366E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="7">
         <v>45652</v>
       </c>
@@ -19173,7 +19188,7 @@
         <v>1.3194826794129918E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="7">
         <v>45653</v>
       </c>
@@ -19249,7 +19264,7 @@
         <v>1.3151728671364585E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="7">
         <v>45656</v>
       </c>
@@ -19325,83 +19340,88 @@
         <v>1.2983324550563337E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="7">
+    <row r="249" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="19">
         <v>45657</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="15">
         <v>93429.2</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="15">
         <v>1230</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="15">
         <v>2533635</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="15">
         <v>69.657407407407405</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="15">
         <v>212.49052579948761</v>
       </c>
-      <c r="G249" s="2">
+      <c r="G249" s="16">
         <f t="shared" si="135"/>
         <v>2.1249052579948762</v>
       </c>
-      <c r="H249" s="8">
+      <c r="H249" s="17">
         <f t="shared" si="66"/>
         <v>43968.642671703194</v>
       </c>
-      <c r="I249">
+      <c r="I249" s="15">
         <f t="shared" si="67"/>
         <v>578.84933710440555</v>
       </c>
-      <c r="J249">
+      <c r="J249" s="15">
         <f t="shared" si="68"/>
         <v>11923.519839142444</v>
       </c>
-      <c r="K249">
+      <c r="K249" s="15">
         <f t="shared" si="69"/>
         <v>969.39185684084919</v>
       </c>
-      <c r="L249">
+      <c r="L249" s="15">
         <f t="shared" si="70"/>
         <v>32.781417969259586</v>
       </c>
-      <c r="M249" s="4">
+      <c r="M249" s="18">
         <f t="shared" si="71"/>
         <v>8.4482667245536248E-3</v>
       </c>
-      <c r="N249" s="4">
+      <c r="N249" s="18">
         <f t="shared" si="72"/>
         <v>1.2270092591814401E-2</v>
       </c>
-      <c r="O249" s="4">
+      <c r="O249" s="18">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="P249" s="4">
+      <c r="P249" s="18">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="Q249" s="4">
-        <f t="shared" si="144"/>
-        <v>3.1501290185368465E-2</v>
-      </c>
-      <c r="R249" s="4">
-        <f t="shared" si="145"/>
-        <v>1.7942433805614999E-2</v>
-      </c>
-      <c r="S249" s="4">
-        <f t="shared" si="146"/>
-        <v>2.4615061076099242E-2</v>
-      </c>
-      <c r="T249" s="4">
-        <f t="shared" si="147"/>
-        <v>1.2940746322726342E-2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q249" s="18">
+        <f>+_xlfn.STDEV.S(M228:M249)</f>
+        <v>3.0107279294914118E-2</v>
+      </c>
+      <c r="R249" s="18">
+        <f t="shared" ref="R249:T249" si="148">+_xlfn.STDEV.S(N228:N249)</f>
+        <v>1.7816912929349074E-2</v>
+      </c>
+      <c r="S249" s="18">
+        <f t="shared" si="148"/>
+        <v>2.4543712565587263E-2</v>
+      </c>
+      <c r="T249" s="18">
+        <f t="shared" si="148"/>
+        <v>1.2526613590292716E-2</v>
+      </c>
+      <c r="U249" s="18"/>
+      <c r="V249" s="2"/>
+      <c r="W249" s="2"/>
+      <c r="X249" s="2"/>
+      <c r="Y249" s="2"/>
+    </row>
+    <row r="250" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="7">
         <v>45658</v>
       </c>
@@ -19461,23 +19481,23 @@
         <v>0</v>
       </c>
       <c r="Q250" s="4">
-        <f t="shared" ref="Q250:Q252" si="148">+_xlfn.STDEV.S(M231:M250)</f>
+        <f t="shared" ref="Q250:Q252" si="149">+_xlfn.STDEV.S(M231:M250)</f>
         <v>3.0859623317084483E-2</v>
       </c>
       <c r="R250" s="4">
-        <f t="shared" ref="R250:R252" si="149">+_xlfn.STDEV.S(N231:N250)</f>
+        <f t="shared" ref="R250:R252" si="150">+_xlfn.STDEV.S(N231:N250)</f>
         <v>1.7662183558150742E-2</v>
       </c>
       <c r="S250" s="4">
-        <f t="shared" ref="S250:S252" si="150">+_xlfn.STDEV.S(O231:O250)</f>
+        <f t="shared" ref="S250:S252" si="151">+_xlfn.STDEV.S(O231:O250)</f>
         <v>2.4335349120384014E-2</v>
       </c>
       <c r="T250" s="4">
-        <f t="shared" ref="T250:T252" si="151">+_xlfn.STDEV.S(P231:P250)</f>
+        <f t="shared" ref="T250:T252" si="152">+_xlfn.STDEV.S(P231:P250)</f>
         <v>1.2940746322726342E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="7">
         <v>45659</v>
       </c>
@@ -19537,23 +19557,23 @@
         <v>2.1565595788910402E-2</v>
       </c>
       <c r="Q251" s="4">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>3.1151029099653588E-2</v>
       </c>
       <c r="R251" s="4">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>1.5847989086026172E-2</v>
       </c>
       <c r="S251" s="4">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>2.7170048946020826E-2</v>
       </c>
       <c r="T251" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>1.3477823092602346E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="7">
         <v>45660</v>
       </c>
@@ -19613,23 +19633,23 @@
         <v>-7.9671289316228817E-3</v>
       </c>
       <c r="Q252" s="4">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>2.94666656670508E-2</v>
       </c>
       <c r="R252" s="4">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>1.6849101790084645E-2</v>
       </c>
       <c r="S252" s="4">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>2.6970864980235418E-2</v>
       </c>
       <c r="T252" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>1.3705591832213719E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="7">
         <v>45663</v>
       </c>
@@ -19649,7 +19669,7 @@
         <v>212.5585309278149</v>
       </c>
       <c r="G253" s="2">
-        <f t="shared" ref="G253" si="152">+F253/$U$1</f>
+        <f t="shared" ref="G253" si="153">+F253/$U$1</f>
         <v>2.1255853092781489</v>
       </c>
       <c r="H253" s="8">
@@ -19689,23 +19709,23 @@
         <v>9.5269888605402434E-3</v>
       </c>
       <c r="Q253" s="4">
-        <f t="shared" ref="Q253" si="153">+_xlfn.STDEV.S(M234:M253)</f>
+        <f t="shared" ref="Q253" si="154">+_xlfn.STDEV.S(M234:M253)</f>
         <v>2.9107028105402027E-2</v>
       </c>
       <c r="R253" s="4">
-        <f t="shared" ref="R253" si="154">+_xlfn.STDEV.S(N234:N253)</f>
+        <f t="shared" ref="R253" si="155">+_xlfn.STDEV.S(N234:N253)</f>
         <v>1.6712903635426733E-2</v>
       </c>
       <c r="S253" s="4">
-        <f t="shared" ref="S253" si="155">+_xlfn.STDEV.S(O234:O253)</f>
+        <f t="shared" ref="S253" si="156">+_xlfn.STDEV.S(O234:O253)</f>
         <v>2.7191151619692315E-2</v>
       </c>
       <c r="T253" s="4">
-        <f t="shared" ref="T253" si="156">+_xlfn.STDEV.S(P234:P253)</f>
+        <f t="shared" ref="T253" si="157">+_xlfn.STDEV.S(P234:P253)</f>
         <v>1.3643899655943991E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="7">
         <v>45664</v>
       </c>
@@ -19725,63 +19745,63 @@
         <v>212.57553561028914</v>
       </c>
       <c r="G254" s="2">
-        <f t="shared" ref="G254:G259" si="157">+F254/$U$1</f>
+        <f t="shared" ref="G254:G259" si="158">+F254/$U$1</f>
         <v>2.1257553561028915</v>
       </c>
       <c r="H254" s="8">
-        <f t="shared" ref="H254:H259" si="158">+B254/G254</f>
+        <f t="shared" ref="H254:H259" si="159">+B254/G254</f>
         <v>45534.76472356345</v>
       </c>
       <c r="I254">
-        <f t="shared" ref="I254:I259" si="159">+C254/G254</f>
+        <f t="shared" ref="I254:I259" si="160">+C254/G254</f>
         <v>566.85732746269753</v>
       </c>
       <c r="J254">
-        <f t="shared" ref="J254:J259" si="160">+D254/F254</f>
+        <f t="shared" ref="J254:J259" si="161">+D254/F254</f>
         <v>13276.1020307334</v>
       </c>
       <c r="K254">
-        <f t="shared" ref="K254:K259" si="161">+D254/C254/G254</f>
+        <f t="shared" ref="K254:K259" si="162">+D254/C254/G254</f>
         <v>1101.7512058699917</v>
       </c>
       <c r="L254">
-        <f t="shared" ref="L254:L259" si="162">+E254/G254</f>
+        <f t="shared" ref="L254:L259" si="163">+E254/G254</f>
         <v>33.469584326289905</v>
       </c>
       <c r="M254" s="4">
-        <f t="shared" ref="M254:M259" si="163">+LN(B254/B253)</f>
+        <f t="shared" ref="M254:M259" si="164">+LN(B254/B253)</f>
         <v>-5.3134813625759912E-2</v>
       </c>
       <c r="N254" s="4">
-        <f t="shared" ref="N254:N259" si="164">+LN(C254/C253)</f>
+        <f t="shared" ref="N254:N259" si="165">+LN(C254/C253)</f>
         <v>0</v>
       </c>
       <c r="O254" s="4">
-        <f t="shared" ref="O254:O259" si="165">+LN(D254/D253)</f>
+        <f t="shared" ref="O254:O259" si="166">+LN(D254/D253)</f>
         <v>7.4522935382701477E-3</v>
       </c>
       <c r="P254" s="4">
-        <f t="shared" ref="P254:P259" si="166">+LN(E254/E253)</f>
+        <f t="shared" ref="P254:P259" si="167">+LN(E254/E253)</f>
         <v>-1.9502053896020553E-3</v>
       </c>
       <c r="Q254" s="4">
-        <f t="shared" ref="Q254:Q259" si="167">+_xlfn.STDEV.S(M235:M254)</f>
+        <f t="shared" ref="Q254:Q259" si="168">+_xlfn.STDEV.S(M235:M254)</f>
         <v>3.1661371638001694E-2</v>
       </c>
       <c r="R254" s="4">
-        <f t="shared" ref="R254:R259" si="168">+_xlfn.STDEV.S(N235:N254)</f>
+        <f t="shared" ref="R254:R259" si="169">+_xlfn.STDEV.S(N235:N254)</f>
         <v>1.6687759679550454E-2</v>
       </c>
       <c r="S254" s="4">
-        <f t="shared" ref="S254:S259" si="169">+_xlfn.STDEV.S(O235:O254)</f>
+        <f t="shared" ref="S254:S259" si="170">+_xlfn.STDEV.S(O235:O254)</f>
         <v>2.6628872380724526E-2</v>
       </c>
       <c r="T254" s="4">
-        <f t="shared" ref="T254:T259" si="170">+_xlfn.STDEV.S(P235:P254)</f>
+        <f t="shared" ref="T254:T259" si="171">+_xlfn.STDEV.S(P235:P254)</f>
         <v>1.3223308957371435E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="7">
         <v>45665</v>
       </c>
@@ -19801,63 +19821,63 @@
         <v>212.59254165313797</v>
       </c>
       <c r="G255" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.1259254165313797</v>
       </c>
       <c r="H255" s="8">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>44706.892942213955</v>
       </c>
       <c r="I255">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>571.51581638379923</v>
       </c>
       <c r="J255">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>13088.309582091726</v>
       </c>
       <c r="K255">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>1077.2271260980845</v>
       </c>
       <c r="L255">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>32.268300414756069</v>
       </c>
       <c r="M255" s="4">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-1.8268403015105603E-2</v>
       </c>
       <c r="N255" s="4">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>8.2645098498934314E-3</v>
       </c>
       <c r="O255" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>-1.4166148910975158E-2</v>
       </c>
       <c r="P255" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>-3.6471762032388146E-2</v>
       </c>
       <c r="Q255" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>2.9937208378000082E-2</v>
       </c>
       <c r="R255" s="4">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1.6690124556772584E-2</v>
       </c>
       <c r="S255" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2.6428594964044309E-2</v>
       </c>
       <c r="T255" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>1.5666762432702236E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="7">
         <v>45666</v>
       </c>
@@ -19877,63 +19897,63 @@
         <v>212.60954905647023</v>
       </c>
       <c r="G256" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.1260954905647025</v>
       </c>
       <c r="H256" s="8">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>43499.47611028314</v>
       </c>
       <c r="I256">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>573.82182757744408</v>
       </c>
       <c r="J256">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>13309.51508320263</v>
       </c>
       <c r="K256">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>1090.943859278904</v>
       </c>
       <c r="L256">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>32.22809149639874</v>
       </c>
       <c r="M256" s="4">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-2.7298802874510277E-2</v>
       </c>
       <c r="N256" s="4">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>4.1067819526535024E-3</v>
       </c>
       <c r="O256" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1.6839762557734811E-2</v>
       </c>
       <c r="P256" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>-1.1668612759203323E-3</v>
       </c>
       <c r="Q256" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>3.0248292259291917E-2</v>
       </c>
       <c r="R256" s="4">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1.6682254940604237E-2</v>
       </c>
       <c r="S256" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2.6456286179979836E-2</v>
       </c>
       <c r="T256" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>1.5673472207381387E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="7">
         <v>45667</v>
       </c>
@@ -19953,63 +19973,63 @@
         <v>212.62655782039477</v>
       </c>
       <c r="G257" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.1262655782039475</v>
       </c>
       <c r="H257" s="8">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>44538.862393659278</v>
       </c>
       <c r="I257">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>576.12746618169649</v>
       </c>
       <c r="J257">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>13192.801636611623</v>
       </c>
       <c r="K257">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>1076.9633989070715</v>
       </c>
       <c r="L257">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>32.201998048539394</v>
       </c>
       <c r="M257" s="4">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>2.3693222493836912E-2</v>
       </c>
       <c r="N257" s="4">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>4.0899852515250664E-3</v>
       </c>
       <c r="O257" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>-8.7278521406521942E-3</v>
       </c>
       <c r="P257" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>-7.2998032294757935E-4</v>
       </c>
       <c r="Q257" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>3.0083046770979779E-2</v>
       </c>
       <c r="R257" s="4">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1.6587397357796518E-2</v>
       </c>
       <c r="S257" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2.6416773424824763E-2</v>
       </c>
       <c r="T257" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>1.5666726060010915E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="7">
         <v>45670</v>
       </c>
@@ -20029,63 +20049,63 @@
         <v>213.62663782039476</v>
       </c>
       <c r="G258" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.1362663782039477</v>
       </c>
       <c r="H258" s="8">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>44418.500879922074</v>
       </c>
       <c r="I258">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>585.13302121570132</v>
       </c>
       <c r="J258">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>12429.063281107878</v>
       </c>
       <c r="K258">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>994.32506248863012</v>
       </c>
       <c r="L258">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>32.093375947638791</v>
       </c>
       <c r="M258" s="4">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1.9863797677813094E-3</v>
       </c>
       <c r="N258" s="4">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>2.0202707317519469E-2</v>
       </c>
       <c r="O258" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>-5.4941376218979834E-2</v>
       </c>
       <c r="P258" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>1.3135811565527494E-3</v>
       </c>
       <c r="Q258" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>2.8459209001087584E-2</v>
       </c>
       <c r="R258" s="4">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1.6893419308479745E-2</v>
       </c>
       <c r="S258" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2.5818237743090586E-2</v>
       </c>
       <c r="T258" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>1.4835431534097953E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="7">
         <v>45671</v>
       </c>
@@ -20105,63 +20125,63 @@
         <v>213.81890179443309</v>
       </c>
       <c r="G259" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.138189017944331</v>
       </c>
       <c r="H259" s="8">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>45147.575443450958</v>
       </c>
       <c r="I259">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>579.9300200279506</v>
       </c>
       <c r="J259">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>12783.121497031103</v>
       </c>
       <c r="K259">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>1030.8968949218631</v>
       </c>
       <c r="L259">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>32.092579011546754</v>
       </c>
       <c r="M259" s="4">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1.718010449641744E-2</v>
       </c>
       <c r="N259" s="4">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>-8.0321716972642666E-3</v>
       </c>
       <c r="O259" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>2.8987719804136131E-2</v>
       </c>
       <c r="P259" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>8.7476314077940091E-4</v>
       </c>
       <c r="Q259" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>2.5900277808662601E-2</v>
       </c>
       <c r="R259" s="4">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1.3091842392565981E-2</v>
       </c>
       <c r="S259" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2.6251393472825839E-2</v>
       </c>
       <c r="T259" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>1.3899563933030349E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="7">
         <v>45672</v>
       </c>
@@ -20181,63 +20201,63 @@
         <v>214.01133880604806</v>
       </c>
       <c r="G260" s="2">
-        <f t="shared" ref="G260:G261" si="171">+F260/$U$1</f>
+        <f t="shared" ref="G260:G261" si="172">+F260/$U$1</f>
         <v>2.1401133880604806</v>
       </c>
       <c r="H260" s="8">
-        <f t="shared" ref="H260:H261" si="172">+B260/G260</f>
+        <f t="shared" ref="H260:H261" si="173">+B260/G260</f>
         <v>46962.226656169914</v>
       </c>
       <c r="I260">
-        <f t="shared" ref="I260:I261" si="173">+C260/G260</f>
+        <f t="shared" ref="I260:I261" si="174">+C260/G260</f>
         <v>579.40855233085301</v>
       </c>
       <c r="J260">
-        <f t="shared" ref="J260:J261" si="174">+D260/F260</f>
+        <f t="shared" ref="J260:J261" si="175">+D260/F260</f>
         <v>12637.059396422832</v>
       </c>
       <c r="K260">
-        <f t="shared" ref="K260:K261" si="175">+D260/C260/G260</f>
+        <f t="shared" ref="K260:K261" si="176">+D260/C260/G260</f>
         <v>1019.117693259906</v>
       </c>
       <c r="L260">
-        <f t="shared" ref="L260:L261" si="176">+E260/G260</f>
+        <f t="shared" ref="L260:L261" si="177">+E260/G260</f>
         <v>31.872143027812481</v>
       </c>
       <c r="M260" s="4">
-        <f t="shared" ref="M260:M261" si="177">+LN(B260/B259)</f>
+        <f t="shared" ref="M260:M261" si="178">+LN(B260/B259)</f>
         <v>4.0306607269032693E-2</v>
       </c>
       <c r="N260" s="4">
-        <f t="shared" ref="N260:N261" si="178">+LN(C260/C259)</f>
+        <f t="shared" ref="N260:N261" si="179">+LN(C260/C259)</f>
         <v>0</v>
       </c>
       <c r="O260" s="4">
-        <f t="shared" ref="O260:O261" si="179">+LN(D260/D259)</f>
+        <f t="shared" ref="O260:O261" si="180">+LN(D260/D259)</f>
         <v>-1.0592353511567803E-2</v>
       </c>
       <c r="P260" s="4">
-        <f t="shared" ref="P260:P261" si="180">+LN(E260/E259)</f>
+        <f t="shared" ref="P260:P261" si="181">+LN(E260/E259)</f>
         <v>-5.9928557636758041E-3</v>
       </c>
       <c r="Q260" s="4">
-        <f t="shared" ref="Q260:Q261" si="181">+_xlfn.STDEV.S(M241:M260)</f>
+        <f t="shared" ref="Q260:Q261" si="182">+_xlfn.STDEV.S(M241:M260)</f>
         <v>2.6872653955193893E-2</v>
       </c>
       <c r="R260" s="4">
-        <f t="shared" ref="R260:R261" si="182">+_xlfn.STDEV.S(N241:N260)</f>
+        <f t="shared" ref="R260:R261" si="183">+_xlfn.STDEV.S(N241:N260)</f>
         <v>1.3091842392565981E-2</v>
       </c>
       <c r="S260" s="4">
-        <f t="shared" ref="S260:S261" si="183">+_xlfn.STDEV.S(O241:O260)</f>
+        <f t="shared" ref="S260:S261" si="184">+_xlfn.STDEV.S(O241:O260)</f>
         <v>2.5468377815451554E-2</v>
       </c>
       <c r="T260" s="4">
-        <f t="shared" ref="T260:T261" si="184">+_xlfn.STDEV.S(P241:P260)</f>
+        <f t="shared" ref="T260:T261" si="185">+_xlfn.STDEV.S(P241:P260)</f>
         <v>1.1463795611681479E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="7">
         <v>45673</v>
       </c>
@@ -20257,63 +20277,63 @@
         <v>214.20394901097347</v>
       </c>
       <c r="G261" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>2.1420394901097346</v>
       </c>
       <c r="H261" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>46570.994820870248</v>
       </c>
       <c r="I261">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>571.88488151413321</v>
       </c>
       <c r="J261">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>12275.109829395813</v>
       </c>
       <c r="K261">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1002.049781991495</v>
       </c>
       <c r="L261">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>31.577382355604875</v>
       </c>
       <c r="M261" s="4">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>-7.4660765644215012E-3</v>
       </c>
       <c r="N261" s="4">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>-1.2170535620255179E-2</v>
       </c>
       <c r="O261" s="4">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>-2.8160502676789722E-2</v>
       </c>
       <c r="P261" s="4">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>-8.3916576362482887E-3</v>
       </c>
       <c r="Q261" s="4">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>2.6844858927214745E-2</v>
       </c>
       <c r="R261" s="4">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>1.1346448844561962E-2</v>
       </c>
       <c r="S261" s="4">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>2.4433845574869256E-2</v>
       </c>
       <c r="T261" s="4">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>1.0820780183787572E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="7">
         <v>45674</v>
       </c>
@@ -20333,68 +20353,68 @@
         <v>215.20484901097348</v>
       </c>
       <c r="G262" s="2">
-        <f t="shared" ref="G262" si="185">+F262/$U$1</f>
+        <f t="shared" ref="G262:G264" si="186">+F262/$U$1</f>
         <v>2.1520484901097348</v>
       </c>
       <c r="H262" s="8">
-        <f t="shared" ref="H262" si="186">+B262/G262</f>
+        <f t="shared" ref="H262:H264" si="187">+B262/G262</f>
         <v>48540.746400502059</v>
       </c>
       <c r="I262">
-        <f t="shared" ref="I262" si="187">+C262/G262</f>
+        <f t="shared" ref="I262:I264" si="188">+C262/G262</f>
         <v>573.87182755209494</v>
       </c>
       <c r="J262">
-        <f t="shared" ref="J262" si="188">+D262/F262</f>
+        <f t="shared" ref="J262:J264" si="189">+D262/F262</f>
         <v>11667.422976477486</v>
       </c>
       <c r="K262">
-        <f t="shared" ref="K262" si="189">+D262/C262/G262</f>
+        <f t="shared" ref="K262:K264" si="190">+D262/C262/G262</f>
         <v>944.73060538279242</v>
       </c>
       <c r="L262">
-        <f t="shared" ref="L262" si="190">+E262/G262</f>
+        <f t="shared" ref="L262:L264" si="191">+E262/G262</f>
         <v>31.100600338511512</v>
       </c>
       <c r="M262" s="4">
-        <f t="shared" ref="M262" si="191">+LN(B262/B261)</f>
+        <f t="shared" ref="M262:M264" si="192">+LN(B262/B261)</f>
         <v>4.6087425270128053E-2</v>
       </c>
       <c r="N262" s="4">
-        <f t="shared" ref="N262" si="192">+LN(C262/C261)</f>
+        <f t="shared" ref="N262:N264" si="193">+LN(C262/C261)</f>
         <v>8.1301260832503091E-3</v>
       </c>
       <c r="O262" s="4">
-        <f t="shared" ref="O262" si="193">+LN(D262/D261)</f>
+        <f t="shared" ref="O262:O264" si="194">+LN(D262/D261)</f>
         <v>-4.6111257093515268E-2</v>
       </c>
       <c r="P262" s="4">
-        <f t="shared" ref="P262" si="194">+LN(E262/E261)</f>
+        <f t="shared" ref="P262:P264" si="195">+LN(E262/E261)</f>
         <v>-1.0552226917828606E-2</v>
       </c>
       <c r="Q262" s="4">
-        <f t="shared" ref="Q262" si="195">+_xlfn.STDEV.S(M243:M262)</f>
+        <f t="shared" ref="Q262:Q264" si="196">+_xlfn.STDEV.S(M243:M262)</f>
         <v>2.8572819165003219E-2</v>
       </c>
       <c r="R262" s="4">
-        <f t="shared" ref="R262" si="196">+_xlfn.STDEV.S(N243:N262)</f>
+        <f t="shared" ref="R262:R264" si="197">+_xlfn.STDEV.S(N243:N262)</f>
         <v>9.6412273641909123E-3</v>
       </c>
       <c r="S262" s="4">
-        <f t="shared" ref="S262" si="197">+_xlfn.STDEV.S(O243:O262)</f>
+        <f t="shared" ref="S262:S264" si="198">+_xlfn.STDEV.S(O243:O262)</f>
         <v>2.6575086047616093E-2</v>
       </c>
       <c r="T262" s="4">
-        <f t="shared" ref="T262" si="198">+_xlfn.STDEV.S(P243:P262)</f>
+        <f t="shared" ref="T262:T264" si="199">+_xlfn.STDEV.S(P243:P262)</f>
         <v>1.1036153548877603E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="7">
         <v>45677</v>
       </c>
       <c r="B263">
-        <v>102270.69</v>
+        <v>102016.66</v>
       </c>
       <c r="C263">
         <v>1235</v>
@@ -20409,64 +20429,143 @@
         <v>215.39853337508333</v>
       </c>
       <c r="G263" s="2">
-        <f t="shared" ref="G263" si="199">+F263/$U$1</f>
+        <f t="shared" si="186"/>
         <v>2.1539853337508332</v>
       </c>
       <c r="H263" s="8">
-        <f t="shared" ref="H263" si="200">+B263/G263</f>
-        <v>47479.752251567734</v>
+        <f t="shared" si="187"/>
+        <v>47361.817372430167</v>
       </c>
       <c r="I263">
-        <f t="shared" ref="I263" si="201">+C263/G263</f>
+        <f t="shared" si="188"/>
         <v>573.35580732550204</v>
       </c>
       <c r="J263">
-        <f t="shared" ref="J263" si="202">+D263/F263</f>
+        <f t="shared" si="189"/>
         <v>11777.413059644601</v>
       </c>
       <c r="K263">
-        <f t="shared" ref="K263" si="203">+D263/C263/G263</f>
+        <f t="shared" si="190"/>
         <v>953.63668499146581</v>
       </c>
       <c r="L263">
-        <f t="shared" ref="L263" si="204">+E263/G263</f>
+        <f t="shared" si="191"/>
         <v>31.119060538484536</v>
       </c>
       <c r="M263" s="4">
-        <f t="shared" ref="M263" si="205">+LN(B263/B262)</f>
-        <v>-2.1200630182038091E-2</v>
+        <f t="shared" si="192"/>
+        <v>-2.3687618543614401E-2</v>
       </c>
       <c r="N263" s="4">
-        <f t="shared" ref="N263" si="206">+LN(C263/C262)</f>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="O263" s="4">
-        <f t="shared" ref="O263" si="207">+LN(D263/D262)</f>
+        <f t="shared" si="194"/>
         <v>1.0282547629892043E-2</v>
       </c>
       <c r="P263" s="4">
-        <f t="shared" ref="P263" si="208">+LN(E263/E262)</f>
+        <f t="shared" si="195"/>
         <v>1.4929832573154871E-3</v>
       </c>
       <c r="Q263" s="4">
-        <f t="shared" ref="Q263" si="209">+_xlfn.STDEV.S(M244:M263)</f>
-        <v>2.7972227801735715E-2</v>
+        <f t="shared" si="196"/>
+        <v>2.8094722935891551E-2</v>
       </c>
       <c r="R263" s="4">
-        <f t="shared" ref="R263" si="210">+_xlfn.STDEV.S(N244:N263)</f>
+        <f t="shared" si="197"/>
         <v>8.6009657229332952E-3</v>
       </c>
       <c r="S263" s="4">
-        <f t="shared" ref="S263" si="211">+_xlfn.STDEV.S(O244:O263)</f>
+        <f t="shared" si="198"/>
         <v>2.6503712729378816E-2</v>
       </c>
       <c r="T263" s="4">
-        <f t="shared" ref="T263" si="212">+_xlfn.STDEV.S(P244:P263)</f>
+        <f t="shared" si="199"/>
         <v>1.1047869898804852E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A264" s="7"/>
+    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A264" s="7">
+        <v>45678</v>
+      </c>
+      <c r="B264">
+        <v>105970.23</v>
+      </c>
+      <c r="C264">
+        <v>1235</v>
+      </c>
+      <c r="D264">
+        <v>2619719.2000000002</v>
+      </c>
+      <c r="E264">
+        <v>67.06</v>
+      </c>
+      <c r="F264">
+        <v>215.59239205512088</v>
+      </c>
+      <c r="G264" s="2">
+        <f t="shared" si="186"/>
+        <v>2.1559239205512086</v>
+      </c>
+      <c r="H264" s="8">
+        <f t="shared" si="187"/>
+        <v>49153.047094957976</v>
+      </c>
+      <c r="I264">
+        <f t="shared" si="188"/>
+        <v>572.84025109951256</v>
+      </c>
+      <c r="J264">
+        <f t="shared" si="189"/>
+        <v>12151.259954155581</v>
+      </c>
+      <c r="K264">
+        <f t="shared" si="190"/>
+        <v>983.90768859559364</v>
+      </c>
+      <c r="L264">
+        <f t="shared" si="191"/>
+        <v>31.104993715573535</v>
+      </c>
+      <c r="M264" s="4">
+        <f t="shared" si="192"/>
+        <v>3.8022072329813437E-2</v>
+      </c>
+      <c r="N264" s="4">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="O264" s="4">
+        <f t="shared" si="194"/>
+        <v>3.2148909921005039E-2</v>
+      </c>
+      <c r="P264" s="4">
+        <f t="shared" si="195"/>
+        <v>4.474606682161615E-4</v>
+      </c>
+      <c r="Q264" s="4">
+        <f t="shared" si="196"/>
+        <v>2.7874542433205196E-2</v>
+      </c>
+      <c r="R264" s="4">
+        <f t="shared" si="197"/>
+        <v>8.6009657229332952E-3</v>
+      </c>
+      <c r="S264" s="4">
+        <f t="shared" si="198"/>
+        <v>2.7110924433475184E-2</v>
+      </c>
+      <c r="T264" s="4">
+        <f>+_xlfn.STDEV.S(P245:P264)</f>
+        <v>1.1051310383238458E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V265" s="2"/>
+      <c r="W265" s="2"/>
+      <c r="X265" s="2"/>
+      <c r="Y265" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -492,10 +492,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="Q250" sqref="Q250"/>
+      <selection pane="bottomLeft" activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17731,7 +17731,7 @@
         <v>4.0486749611416593E-2</v>
       </c>
       <c r="R227" s="18">
-        <f t="shared" ref="R227:T227" si="77">+_xlfn.STDEV.S(N208:N227)</f>
+        <f t="shared" ref="R227:S227" si="77">+_xlfn.STDEV.S(N208:N227)</f>
         <v>9.4965319141101703E-3</v>
       </c>
       <c r="S227" s="18">
@@ -19324,19 +19324,19 @@
         <v>3.9957431959107108E-3</v>
       </c>
       <c r="Q248" s="4">
-        <f t="shared" ref="Q248:Q249" si="144">+_xlfn.STDEV.S(M229:M248)</f>
+        <f t="shared" ref="Q248" si="144">+_xlfn.STDEV.S(M229:M248)</f>
         <v>3.1425279498059303E-2</v>
       </c>
       <c r="R248" s="4">
-        <f t="shared" ref="R248:R249" si="145">+_xlfn.STDEV.S(N229:N248)</f>
+        <f t="shared" ref="R248" si="145">+_xlfn.STDEV.S(N229:N248)</f>
         <v>1.8614177987299606E-2</v>
       </c>
       <c r="S248" s="4">
-        <f t="shared" ref="S248:S249" si="146">+_xlfn.STDEV.S(O229:O248)</f>
+        <f t="shared" ref="S248" si="146">+_xlfn.STDEV.S(O229:O248)</f>
         <v>2.5607439411847857E-2</v>
       </c>
       <c r="T248" s="4">
-        <f t="shared" ref="T248:T249" si="147">+_xlfn.STDEV.S(P229:P248)</f>
+        <f t="shared" ref="T248" si="147">+_xlfn.STDEV.S(P229:P248)</f>
         <v>1.2983324550563337E-2</v>
       </c>
     </row>
@@ -19953,7 +19953,7 @@
         <v>1.5673472207381387E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="7">
         <v>45667</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>1.5666726060010915E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="7">
         <v>45670</v>
       </c>
@@ -20105,7 +20105,7 @@
         <v>1.4835431534097953E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="7">
         <v>45671</v>
       </c>
@@ -20181,7 +20181,7 @@
         <v>1.3899563933030349E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="7">
         <v>45672</v>
       </c>
@@ -20257,7 +20257,7 @@
         <v>1.1463795611681479E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="7">
         <v>45673</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>1.0820780183787572E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="7">
         <v>45674</v>
       </c>
@@ -20353,63 +20353,63 @@
         <v>215.20484901097348</v>
       </c>
       <c r="G262" s="2">
-        <f t="shared" ref="G262:G264" si="186">+F262/$U$1</f>
+        <f t="shared" ref="G262:G265" si="186">+F262/$U$1</f>
         <v>2.1520484901097348</v>
       </c>
       <c r="H262" s="8">
-        <f t="shared" ref="H262:H264" si="187">+B262/G262</f>
+        <f t="shared" ref="H262:H265" si="187">+B262/G262</f>
         <v>48540.746400502059</v>
       </c>
       <c r="I262">
-        <f t="shared" ref="I262:I264" si="188">+C262/G262</f>
+        <f t="shared" ref="I262:I265" si="188">+C262/G262</f>
         <v>573.87182755209494</v>
       </c>
       <c r="J262">
-        <f t="shared" ref="J262:J264" si="189">+D262/F262</f>
+        <f t="shared" ref="J262:J265" si="189">+D262/F262</f>
         <v>11667.422976477486</v>
       </c>
       <c r="K262">
-        <f t="shared" ref="K262:K264" si="190">+D262/C262/G262</f>
+        <f t="shared" ref="K262:K265" si="190">+D262/C262/G262</f>
         <v>944.73060538279242</v>
       </c>
       <c r="L262">
-        <f t="shared" ref="L262:L264" si="191">+E262/G262</f>
+        <f t="shared" ref="L262:L265" si="191">+E262/G262</f>
         <v>31.100600338511512</v>
       </c>
       <c r="M262" s="4">
-        <f t="shared" ref="M262:M264" si="192">+LN(B262/B261)</f>
+        <f t="shared" ref="M262:M265" si="192">+LN(B262/B261)</f>
         <v>4.6087425270128053E-2</v>
       </c>
       <c r="N262" s="4">
-        <f t="shared" ref="N262:N264" si="193">+LN(C262/C261)</f>
+        <f t="shared" ref="N262:N265" si="193">+LN(C262/C261)</f>
         <v>8.1301260832503091E-3</v>
       </c>
       <c r="O262" s="4">
-        <f t="shared" ref="O262:O264" si="194">+LN(D262/D261)</f>
+        <f t="shared" ref="O262:O265" si="194">+LN(D262/D261)</f>
         <v>-4.6111257093515268E-2</v>
       </c>
       <c r="P262" s="4">
-        <f t="shared" ref="P262:P264" si="195">+LN(E262/E261)</f>
+        <f t="shared" ref="P262:P265" si="195">+LN(E262/E261)</f>
         <v>-1.0552226917828606E-2</v>
       </c>
       <c r="Q262" s="4">
-        <f t="shared" ref="Q262:Q264" si="196">+_xlfn.STDEV.S(M243:M262)</f>
+        <f t="shared" ref="Q262:Q265" si="196">+_xlfn.STDEV.S(M243:M262)</f>
         <v>2.8572819165003219E-2</v>
       </c>
       <c r="R262" s="4">
-        <f t="shared" ref="R262:R264" si="197">+_xlfn.STDEV.S(N243:N262)</f>
+        <f t="shared" ref="R262:R265" si="197">+_xlfn.STDEV.S(N243:N262)</f>
         <v>9.6412273641909123E-3</v>
       </c>
       <c r="S262" s="4">
-        <f t="shared" ref="S262:S264" si="198">+_xlfn.STDEV.S(O243:O262)</f>
+        <f t="shared" ref="S262:S265" si="198">+_xlfn.STDEV.S(O243:O262)</f>
         <v>2.6575086047616093E-2</v>
       </c>
       <c r="T262" s="4">
-        <f t="shared" ref="T262:T264" si="199">+_xlfn.STDEV.S(P243:P262)</f>
+        <f t="shared" ref="T262:T265" si="199">+_xlfn.STDEV.S(P243:P262)</f>
         <v>1.1036153548877603E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="7">
         <v>45677</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>1.1047869898804852E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="7">
         <v>45678</v>
       </c>
@@ -20557,15 +20557,85 @@
         <v>2.7110924433475184E-2</v>
       </c>
       <c r="T264" s="4">
-        <f>+_xlfn.STDEV.S(P245:P264)</f>
+        <f t="shared" si="199"/>
         <v>1.1051310383238458E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="V265" s="2"/>
-      <c r="W265" s="2"/>
-      <c r="X265" s="2"/>
-      <c r="Y265" s="2"/>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A265" s="7">
+        <v>45679</v>
+      </c>
+      <c r="B265">
+        <v>103409.91</v>
+      </c>
+      <c r="C265">
+        <v>1235</v>
+      </c>
+      <c r="D265">
+        <v>2680945.7999999998</v>
+      </c>
+      <c r="E265">
+        <v>66.02</v>
+      </c>
+      <c r="F265">
+        <v>215.78642520797047</v>
+      </c>
+      <c r="G265" s="2">
+        <f t="shared" si="186"/>
+        <v>2.1578642520797047</v>
+      </c>
+      <c r="H265" s="8">
+        <f t="shared" si="187"/>
+        <v>47922.342612764303</v>
+      </c>
+      <c r="I265">
+        <f t="shared" si="188"/>
+        <v>572.32515845690136</v>
+      </c>
+      <c r="J265">
+        <f t="shared" si="189"/>
+        <v>12424.070686634528</v>
+      </c>
+      <c r="K265">
+        <f t="shared" si="190"/>
+        <v>1005.9976264481398</v>
+      </c>
+      <c r="L265">
+        <f t="shared" si="191"/>
+        <v>30.595066365445042</v>
+      </c>
+      <c r="M265" s="4">
+        <f t="shared" si="192"/>
+        <v>-2.4457406735495485E-2</v>
+      </c>
+      <c r="N265" s="4">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="O265" s="4">
+        <f t="shared" si="194"/>
+        <v>2.3102506255507291E-2</v>
+      </c>
+      <c r="P265" s="4">
+        <f t="shared" si="195"/>
+        <v>-1.5630014613035596E-2</v>
+      </c>
+      <c r="Q265" s="4">
+        <f t="shared" si="196"/>
+        <v>2.8555926792433226E-2</v>
+      </c>
+      <c r="R265" s="4">
+        <f t="shared" si="197"/>
+        <v>8.6009657229332952E-3</v>
+      </c>
+      <c r="S265" s="4">
+        <f t="shared" si="198"/>
+        <v>2.7540104235045146E-2</v>
+      </c>
+      <c r="T265" s="4">
+        <f t="shared" si="199"/>
+        <v>1.1514662178500935E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
